--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project_Voca\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298DAF6-5379-4B8A-B387-02092CE39D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC52164-D548-458A-B49D-0C0807AE392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="162">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -410,23 +410,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a_keyid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>키워드에 포함된 첨부파일 이름을 저장하는 테이블(키워드:첨부파일 = 1:N)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_keywords 로 참조테이블 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배경음악</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_keyatt</t>
   </si>
   <si>
     <t>fk_subkey</t>
@@ -673,30 +662,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRIMARY KEY(a_attid, a_keyid),
-CONSTRAINT fk_keyatt
-FOREIGN KEY(a_keyid) REFERENCES tbl_keywords(k_keyid)
+    <t>a_originalname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_savename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_datename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_isholiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_subatt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_subid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(a_attid, a_subid),
+CONSTRAINT fk_subatt
+FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
 ON DELETE CASCADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_originalname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_savename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_datename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_isholiday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,10 +1428,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,13 +1458,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1460,6 +1472,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1479,15 +1497,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1496,24 +1505,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2516,22 +2507,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44575</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2541,38 +2532,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2614,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2635,7 +2626,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2643,13 +2634,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -2668,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -2693,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -2718,16 +2709,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>31</v>
@@ -2747,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>83</v>
@@ -2762,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2776,13 +2767,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>83</v>
@@ -2806,12 +2797,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="E13" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -3758,22 +3749,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44575</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3783,38 +3774,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3856,13 +3847,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -3885,13 +3876,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -3901,16 +3892,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -3918,13 +3909,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -3935,8 +3926,8 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65" t="s">
+      <c r="K8" s="40"/>
+      <c r="L8" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3948,10 +3939,10 @@
         <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -3961,7 +3952,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>66</v>
@@ -3984,7 +3975,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>29</v>
@@ -4003,16 +3994,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -4029,14 +4020,14 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="E12" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4048,10 +4039,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="53"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4063,13 +4054,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="53"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4080,10 +4071,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="53"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4095,10 +4086,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -4127,7 +4118,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4326,13 +4317,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="E12:H16"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="E12:H16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4346,7 +4337,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5004,20 +4995,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44918</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5029,36 +5020,36 @@
       <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5103,7 +5094,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>64</v>
@@ -5114,7 +5105,7 @@
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="38" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -5129,13 +5120,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5143,20 +5134,20 @@
       <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="39" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5219,12 +5210,12 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -5236,10 +5227,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="53"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -5251,10 +5242,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5453,7 +5444,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5474,7 +5465,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5584,7 +5575,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6242,20 +6233,20 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44918</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -6267,36 +6258,36 @@
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6341,7 +6332,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>62</v>
@@ -6395,7 +6386,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>63</v>
@@ -6410,7 +6401,7 @@
         <v>47</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>66</v>
@@ -6555,12 +6546,12 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="E14" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6572,10 +6563,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6587,10 +6578,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -7502,20 +7493,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44918</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7527,36 +7518,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7601,7 +7592,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>71</v>
@@ -7612,7 +7603,7 @@
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="38" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -7630,7 +7621,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>67</v>
@@ -7645,7 +7636,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>65</v>
@@ -7711,12 +7702,12 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="E10" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -7728,10 +7719,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -7743,10 +7734,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -8059,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453491B5-A064-434A-A72B-3A07375397B8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8718,20 +8709,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44918</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8743,36 +8734,36 @@
       <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8817,7 +8808,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>73</v>
@@ -8828,7 +8819,7 @@
       <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="38" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -8843,13 +8834,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -8861,13 +8852,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>46</v>
@@ -8938,7 +8929,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -8963,7 +8954,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9008,12 +8999,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="E13" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -9025,10 +9016,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -9040,10 +9031,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -9166,18 +9157,10 @@
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="34">
-        <v>44940</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -9968,22 +9951,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
         <v>44575</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -9993,38 +9976,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10066,19 +10049,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -10091,26 +10074,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10118,19 +10101,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -10139,7 +10122,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10148,12 +10131,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="E9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -10210,10 +10193,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project_Note\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC52164-D548-458A-B49D-0C0807AE392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E360E-0EF5-48A5-A5F7-0D800D94C33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="2205" windowWidth="27855" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="주제" sheetId="2" r:id="rId4"/>
     <sheet name="키워드" sheetId="3" r:id="rId5"/>
     <sheet name="첨부파일" sheetId="5" r:id="rId6"/>
-    <sheet name="국경일" sheetId="13" r:id="rId7"/>
+    <sheet name="할일" sheetId="15" r:id="rId7"/>
+    <sheet name="국경일" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="193">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>s_content</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -398,10 +395,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s_content 칼럼 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c_checked 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,10 +461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자점수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,10 +473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가변문자열(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -496,18 +481,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체크날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -553,90 +530,283 @@
   </si>
   <si>
     <t>c_userid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user 참조테이블 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_catid, c_userid 슈퍼키 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_usecat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>휴일여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_locdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 또는 N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_holidays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일 목록을 저장하는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(h_locdate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_catsco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_scoid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_catid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(s_subid, s_catid),
+CONSTRAINT fk_catsub
+FOREIGN KEY(s_catid) REFERENCES tbl_categories(c_catid)
+ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(k_keyid, k_subid),
+CONSTRAINT fk_subkey
+FOREIGN KEY(k_subid) REFERENCES tbl_subjects(s_subid)
+ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_originalname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_savename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_datename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_isholiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_subatt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_subid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(a_attid, a_subid),
+CONSTRAINT fk_subatt
+FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
+ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 목록을 저장하는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_prior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_index 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_compdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_comptime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_views 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_profileimg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필문장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_profilestr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_todoid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_userid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_usetodo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_users</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PRIMARY KEY(c_catid, c_userid),
 CONSTRAINT fk_usecat
-FOREIGN KEY(c_userid) REFERENCES tbl_user(u_userid)
+FOREIGN KEY(c_userid) REFERENCES tbl_users(u_userid)
 ON DELETE CASCADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user 참조테이블 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_catid, c_userid 슈퍼키 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_usecat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>휴일여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_locdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y 또는 N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_holidays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일 목록을 저장하는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(h_locdate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_catsco</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_scoid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PRIMARY KEY(sc_scoid),
 CONSTRAINT fk_usesco
-FOREIGN KEY(sc_userid) REFERENCES tbl_user(u_userid)
+FOREIGN KEY(sc_userid) REFERENCES tbl_users(u_userid)
 ON DELETE CASCADE,
 CONSTRAINT fk_catsco
 FOREIGN KEY(sc_catid) REFERENCES tbl_categories(c_catid)
@@ -644,56 +814,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sc_catid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(s_subid, s_catid),
-CONSTRAINT fk_catsub
-FOREIGN KEY(s_catid) REFERENCES tbl_categories(c_catid)
-ON DELETE CASCADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(k_keyid, k_subid),
-CONSTRAINT fk_subkey
-FOREIGN KEY(k_subid) REFERENCES tbl_subjects(s_subid)
-ON DELETE CASCADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_originalname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_savename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_datename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_isholiday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_subatt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_subid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(a_attid, a_subid),
-CONSTRAINT fk_subatt
-FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
-ON DELETE CASCADE</t>
+    <t>PRIMARY KEY(t_todoid, t_userid),
+CONSTRAINT fk_usetodo
+FOREIGN KEY(t_userid) REFERENCES tbl_users(u_userid)
+ON DELETE CASCADE,
+CONSTRAINT valid_prior CHECK (t_prior &gt;= 0 AND t_prior &lt;= 5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_darkmode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,6 +1578,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,12 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1505,6 +1664,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,7 +2008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1850,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2507,22 +2675,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44575</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2532,38 +2700,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2605,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2626,7 +2794,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2634,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -2659,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -2673,140 +2841,144 @@
       <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="2:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>82</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>95</v>
+      <c r="C11" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>99</v>
+      <c r="C12" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="30"/>
       <c r="L12" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
@@ -2814,10 +2986,12 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3072,14 +3246,13 @@
       <c r="L35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E13:H13"/>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3093,7 +3266,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3749,22 +3922,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44575</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3774,38 +3947,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3847,13 +4020,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -3876,13 +4049,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -3892,16 +4065,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -3909,13 +4082,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -3936,13 +4109,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -3952,13 +4125,13 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>46</v>
@@ -3975,7 +4148,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>29</v>
@@ -3994,16 +4167,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -4020,14 +4193,14 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
+      <c r="E12" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4039,10 +4212,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4054,13 +4227,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4071,10 +4244,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4086,10 +4259,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -4118,7 +4291,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4337,7 +4510,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4995,20 +5168,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5018,38 +5191,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5091,13 +5264,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -5120,13 +5293,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5138,16 +5311,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5161,7 +5334,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>29</v>
@@ -5169,7 +5342,9 @@
       <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -5180,28 +5355,28 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="30"/>
       <c r="L9" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5210,12 +5385,12 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+      <c r="E10" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -5227,10 +5402,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -5242,10 +5417,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5423,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -5444,7 +5619,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5465,7 +5640,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5575,7 +5750,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6233,20 +6408,20 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -6256,38 +6431,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6329,13 +6504,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -6383,13 +6558,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -6401,13 +6576,13 @@
         <v>47</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>46</v>
@@ -6424,7 +6599,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -6493,28 +6668,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6522,19 +6697,21 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -6544,14 +6721,20 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6563,10 +6746,12 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6578,10 +6763,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -6593,10 +6778,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -6693,13 +6878,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="34">
-        <v>44940</v>
+        <v>44986</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6814,8 +6999,7 @@
       <c r="L35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E14:H16"/>
+  <mergeCells count="6">
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
@@ -6835,7 +7019,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7493,20 +7677,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7518,36 +7702,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7589,13 +7773,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>38</v>
@@ -7618,13 +7802,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -7636,13 +7820,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>46</v>
@@ -7653,16 +7837,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>31</v>
@@ -7678,19 +7862,21 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="26"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -7700,14 +7886,20 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="C10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -7719,10 +7911,12 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
+      <c r="E11" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -7734,10 +7928,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -7749,10 +7943,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -7915,7 +8109,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -7926,10 +8120,18 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="20">
+        <v>2</v>
+      </c>
+      <c r="C28" s="34">
+        <v>45016</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8031,7 +8233,7 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E10:H12"/>
+    <mergeCell ref="E11:H13"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
@@ -8050,8 +8252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453491B5-A064-434A-A72B-3A07375397B8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8709,20 +8911,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8732,38 +8934,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8805,13 +9007,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -8834,13 +9036,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -8852,13 +9054,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>46</v>
@@ -8875,7 +9077,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -8902,7 +9104,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -8929,7 +9131,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -8954,7 +9156,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -8979,7 +9181,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
@@ -8999,12 +9201,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="E13" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -9016,10 +9218,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -9031,10 +9233,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -9291,6 +9493,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABF5D82-5A29-40C3-8037-DD259C776DB2}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
+        <v>44986</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="64"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8">
+        <v>12</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="8">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="E15:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA42165-CE3E-49F7-A377-C658EF6FF3B9}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -9951,22 +11417,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60">
         <v>44575</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -9976,38 +11442,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10049,19 +11515,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -10074,26 +11540,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10101,19 +11567,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -10122,7 +11588,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10131,12 +11597,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="E9" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E360E-0EF5-48A5-A5F7-0D800D94C33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731BD13-C878-4A4B-90C4-CDE709C09389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="2205" windowWidth="27855" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="194">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -407,20 +407,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배경음악</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fk_subkey</t>
   </si>
   <si>
     <t>fk_catsub</t>
   </si>
   <si>
-    <t>DEFAULT 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>다크모드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,10 +458,6 @@
   </si>
   <si>
     <t>tbl_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -823,6 +811,22 @@
   </si>
   <si>
     <t>u_darkmode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_keycount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_subcount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,33 +1582,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1673,6 +1650,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,7 +2002,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2675,22 +2658,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44575</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2700,38 +2683,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="C4" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2773,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2794,7 +2777,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2802,13 +2785,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -2827,13 +2810,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -2842,7 +2825,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2854,13 +2837,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -2877,13 +2860,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -2900,16 +2883,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -2926,14 +2909,14 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>93</v>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>82</v>
@@ -2942,7 +2925,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2955,30 +2938,18 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31" t="s">
-        <v>87</v>
-      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
@@ -2986,12 +2957,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3922,22 +3891,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44575</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3947,38 +3916,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="C4" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4020,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -4049,13 +4018,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -4065,16 +4034,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>116</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -4082,13 +4051,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -4112,10 +4081,10 @@
         <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -4125,7 +4094,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>65</v>
@@ -4148,7 +4117,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>29</v>
@@ -4167,16 +4136,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -4193,14 +4162,14 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="E12" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4212,10 +4181,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4227,13 +4196,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4244,10 +4213,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4259,10 +4228,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -4291,7 +4260,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4510,7 +4479,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5168,20 +5137,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44918</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5193,36 +5162,36 @@
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5267,7 +5236,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
@@ -5293,13 +5262,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5311,16 +5280,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,7 +5312,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
@@ -5354,17 +5323,17 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>84</v>
+      <c r="C9" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -5375,26 +5344,36 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="31" t="s">
-        <v>87</v>
-      </c>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="C10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
@@ -5402,25 +5381,27 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="E11" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>7</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5431,11 +5412,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -5619,7 +5600,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5640,7 +5621,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5730,13 +5711,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E10:H12"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E11:H13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5750,7 +5731,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6408,20 +6389,20 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44918</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -6433,36 +6414,36 @@
       <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6507,7 +6488,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>61</v>
@@ -6561,7 +6542,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>62</v>
@@ -6576,7 +6557,7 @@
         <v>47</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>65</v>
@@ -6668,16 +6649,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
@@ -6688,53 +6669,59 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6744,14 +6731,20 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6763,10 +6756,12 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="49"/>
+      <c r="E16" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -6778,10 +6773,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -6793,10 +6788,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -6884,7 +6879,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6999,7 +6994,8 @@
       <c r="L35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E16:H18"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
@@ -7677,20 +7673,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44918</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7702,36 +7698,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7776,7 +7772,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>70</v>
@@ -7805,7 +7801,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>66</v>
@@ -7820,7 +7816,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>64</v>
@@ -7837,16 +7833,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>31</v>
@@ -7911,12 +7907,12 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="E11" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -7928,10 +7924,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -7943,10 +7939,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -8130,7 +8126,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -8911,20 +8907,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44918</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8936,36 +8932,36 @@
       <c r="C3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -9010,7 +9006,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>72</v>
@@ -9039,10 +9035,10 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -9054,7 +9050,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>64</v>
@@ -9131,7 +9127,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -9156,7 +9152,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9201,12 +9197,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="E13" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -9218,10 +9214,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -9233,10 +9229,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -9496,7 +9492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABF5D82-5A29-40C3-8037-DD259C776DB2}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10153,22 +10149,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44986</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -10178,38 +10174,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="C4" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10251,21 +10247,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="45" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -10278,13 +10274,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -10296,16 +10292,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10319,7 +10315,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -10346,7 +10342,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -10373,7 +10369,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -10392,13 +10388,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -10417,26 +10413,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10444,13 +10440,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
@@ -10469,13 +10465,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
@@ -10495,11 +10491,11 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="E15" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -10512,9 +10508,9 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -10741,13 +10737,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="E15:G16"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="E15:G16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11417,22 +11413,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
         <v>44575</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -11442,38 +11438,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="C4" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11515,19 +11511,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -11540,26 +11536,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11567,19 +11563,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -11588,7 +11584,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11597,12 +11593,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="E9" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731BD13-C878-4A4B-90C4-CDE709C09389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9104577-226E-4FD7-A35A-57191F6814E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 주제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,15 +367,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선택여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작은정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_checked</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -788,16 +776,6 @@
     <t>PRIMARY KEY(c_catid, c_userid),
 CONSTRAINT fk_usecat
 FOREIGN KEY(c_userid) REFERENCES tbl_users(u_userid)
-ON DELETE CASCADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(sc_scoid),
-CONSTRAINT fk_usesco
-FOREIGN KEY(sc_userid) REFERENCES tbl_users(u_userid)
-ON DELETE CASCADE,
-CONSTRAINT fk_catsco
-FOREIGN KEY(sc_catid) REFERENCES tbl_categories(c_catid)
 ON DELETE CASCADE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -827,6 +805,25 @@
   </si>
   <si>
     <t>c_subcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_bookmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(sc_scoid),
+CONSTRAINT fk_usesco
+FOREIGN KEY(sc_userid) REFERENCES tbl_users(u_userid)
+ON DELETE CASCADE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1446,7 +1443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1653,9 +1650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2658,7 +2652,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>14</v>
@@ -2683,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -2704,7 +2698,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -2756,13 +2750,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2777,7 +2771,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2785,13 +2779,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -2810,13 +2804,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -2825,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2837,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -2860,13 +2854,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -2883,22 +2877,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2910,28 +2904,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="30"/>
       <c r="L12" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2941,7 +2935,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -2957,10 +2951,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3235,7 +3229,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3891,7 +3885,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>14</v>
@@ -3916,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -3937,7 +3931,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -3989,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -4018,13 +4012,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -4034,16 +4028,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -4051,13 +4045,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -4078,13 +4072,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -4094,13 +4088,13 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>46</v>
@@ -4117,7 +4111,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>29</v>
@@ -4136,16 +4130,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -4163,13 +4157,13 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="56" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="58"/>
       <c r="I12" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4202,7 +4196,7 @@
       <c r="H14" s="61"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4260,7 +4254,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4479,7 +4473,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5160,7 +5154,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -5181,7 +5175,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -5233,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -5262,13 +5256,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5280,16 +5274,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5303,7 +5297,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>29</v>
@@ -5312,7 +5306,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
@@ -5324,22 +5318,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5351,46 +5345,54 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="30"/>
       <c r="L10" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="29"/>
+      <c r="L11" s="29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
@@ -5398,10 +5400,12 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="61"/>
+      <c r="E12" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5413,10 +5417,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -5428,10 +5432,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -5579,7 +5583,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -5600,7 +5604,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5621,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5711,13 +5715,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E12:H14"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E11:H13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5730,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6412,7 +6416,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -6433,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -6485,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -6514,13 +6518,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>29</v>
@@ -6539,13 +6543,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -6557,13 +6561,13 @@
         <v>47</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>46</v>
@@ -6580,7 +6584,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -6594,12 +6598,12 @@
       <c r="K9" s="30"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="2:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -6619,109 +6623,107 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6731,20 +6733,14 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6756,12 +6752,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -6788,10 +6782,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -6879,7 +6873,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6995,13 +6989,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E16:H18"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E15:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7717,7 +7711,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -7769,13 +7763,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>38</v>
@@ -7798,13 +7792,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -7816,13 +7810,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>46</v>
@@ -7833,16 +7827,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>31</v>
@@ -7861,10 +7855,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -7883,13 +7877,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>30</v>
@@ -7908,7 +7902,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -8105,7 +8099,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8126,7 +8120,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -8930,7 +8924,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -8951,7 +8945,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -9003,13 +8997,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -9032,13 +9026,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -9050,13 +9044,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>46</v>
@@ -9073,7 +9067,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -9100,7 +9094,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -9127,7 +9121,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -9152,7 +9146,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9177,7 +9171,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
@@ -9198,7 +9192,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -10149,7 +10143,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>14</v>
@@ -10174,7 +10168,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -10195,7 +10189,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -10247,19 +10241,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>47</v>
@@ -10274,13 +10268,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -10292,16 +10286,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10315,7 +10309,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -10342,7 +10336,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -10369,7 +10363,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -10388,13 +10382,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -10413,26 +10407,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10440,13 +10434,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
@@ -10465,13 +10459,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
@@ -10492,7 +10486,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
@@ -11413,7 +11407,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>14</v>
@@ -11438,7 +11432,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -11459,7 +11453,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -11511,19 +11505,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -11536,26 +11530,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11563,19 +11557,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -11584,7 +11578,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11594,7 +11588,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9104577-226E-4FD7-A35A-57191F6814E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4BDB19-3E48-4EB3-9835-A6D76A05DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="27855" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="193">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -401,10 +401,6 @@
     <t>fk_catsub</t>
   </si>
   <si>
-    <t>다크모드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정보를 저장하는 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,10 +446,6 @@
   </si>
   <si>
     <t>가변문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_cscore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -726,18 +718,6 @@
   </si>
   <si>
     <t>t_comptime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_views 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -788,10 +768,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_darkmode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>키워드 수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -824,6 +800,26 @@
 CONSTRAINT fk_usesco
 FOREIGN KEY(sc_userid) REFERENCES tbl_users(u_userid)
 ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오답횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_wrongcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_wrongcount 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_totalscore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1573,12 +1569,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +1640,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2652,22 +2648,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44575</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2677,38 +2673,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2750,13 +2746,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2771,7 +2767,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2779,13 +2775,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -2804,13 +2800,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
@@ -2819,7 +2815,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2831,13 +2827,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -2854,13 +2850,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -2877,16 +2873,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -2903,30 +2899,18 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="30"/>
-      <c r="L12" s="31" t="s">
-        <v>84</v>
-      </c>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
@@ -2934,12 +2918,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -3229,7 +3211,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3885,22 +3867,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44575</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3910,38 +3892,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3983,13 +3965,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -4012,13 +3994,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -4028,16 +4010,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -4045,13 +4027,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -4075,10 +4057,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -4088,7 +4070,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>64</v>
@@ -4111,7 +4093,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>29</v>
@@ -4130,16 +4112,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -4156,14 +4138,14 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="E12" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4175,10 +4157,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4190,13 +4172,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4207,10 +4189,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4222,10 +4204,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -4254,7 +4236,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -5131,20 +5113,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44918</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5156,36 +5138,36 @@
       <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5230,7 +5212,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>62</v>
@@ -5256,13 +5238,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5274,16 +5256,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5306,7 +5288,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
@@ -5318,16 +5300,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -5351,7 +5333,7 @@
         <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>81</v>
@@ -5374,13 +5356,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -5400,12 +5382,12 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="E12" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5417,10 +5399,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -5432,10 +5414,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -5604,7 +5586,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5625,7 +5607,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5734,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6393,20 +6375,20 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44918</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -6418,36 +6400,36 @@
       <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6492,7 +6474,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>60</v>
@@ -6546,7 +6528,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>61</v>
@@ -6603,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -6628,16 +6610,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -6684,23 +6666,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -6710,20 +6688,14 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6735,12 +6707,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6752,10 +6722,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="61"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -6767,10 +6737,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="61"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -6863,18 +6833,10 @@
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="34">
-        <v>44986</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -6989,13 +6951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E14:H16"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E15:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7009,7 +6971,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7667,20 +7629,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44918</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7692,36 +7654,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7766,7 +7728,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>69</v>
@@ -7795,7 +7757,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>65</v>
@@ -7827,16 +7789,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>31</v>
@@ -7852,21 +7814,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -7877,19 +7841,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -7899,14 +7865,20 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -7918,10 +7890,12 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="E12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -7933,10 +7907,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -7948,10 +7922,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -8113,14 +8087,14 @@
       <c r="B28" s="20">
         <v>2</v>
       </c>
-      <c r="C28" s="34">
-        <v>45016</v>
+      <c r="C28" s="67" t="s">
+        <v>191</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -8131,10 +8105,18 @@
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="20">
+        <v>3</v>
+      </c>
+      <c r="C29" s="34">
+        <v>44994</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>190</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -8223,13 +8205,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E11:H13"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E12:H14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8901,20 +8883,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44918</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8926,36 +8908,36 @@
       <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -9000,7 +8982,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>71</v>
@@ -9029,10 +9011,10 @@
         <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -9044,7 +9026,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>63</v>
@@ -9121,7 +9103,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -9146,7 +9128,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9191,12 +9173,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="E13" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -9208,10 +9190,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -9223,10 +9205,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -10143,22 +10125,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44986</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -10168,38 +10150,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10241,21 +10223,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="43" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -10268,13 +10250,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -10286,16 +10268,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10309,7 +10291,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -10336,7 +10318,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -10363,7 +10345,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -10382,13 +10364,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -10407,26 +10389,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10434,13 +10416,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
@@ -10459,13 +10441,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
@@ -10485,11 +10467,11 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+      <c r="E15" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -10502,9 +10484,9 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -11407,22 +11389,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <v>44575</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -11432,38 +11414,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11505,19 +11487,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -11530,26 +11512,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11557,19 +11539,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -11578,7 +11560,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11587,12 +11569,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="E9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4BDB19-3E48-4EB3-9835-A6D76A05DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCBDD63-4C66-400A-83A4-63F50AA03D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="27855" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="27855" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="200">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -438,10 +438,6 @@
   </si>
   <si>
     <t>사용자점수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -820,6 +816,38 @@
   </si>
   <si>
     <t>u_totalscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_quizdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_quizdate 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_scores</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1413,17 +1441,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1439,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,9 +1578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1571,6 +1585,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1637,15 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2650,20 +2661,20 @@
       <c r="C2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44575</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2673,38 +2684,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2746,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2767,7 +2778,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2815,7 +2826,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2827,13 +2838,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -2850,13 +2861,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -2876,13 +2887,13 @@
         <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -2901,8 +2912,8 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="42" t="s">
-        <v>113</v>
+      <c r="E12" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2918,9 +2929,9 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="26"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -3211,7 +3222,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3869,20 +3880,20 @@
       <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44575</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3892,38 +3903,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3965,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -3994,13 +4005,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -4010,16 +4021,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -4027,13 +4038,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -4044,8 +4055,8 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4054,117 +4065,137 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>46</v>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>40</v>
+      <c r="C10" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="29" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="C12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
+      <c r="C13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
@@ -4172,14 +4203,16 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="E14" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
     </row>
@@ -4189,10 +4222,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4204,12 +4237,14 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="14"/>
     </row>
@@ -4219,10 +4254,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -4233,13 +4268,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -4435,8 +4470,8 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E14:H17"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="E12:H16"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -4454,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13679257-E337-4B41-B5F4-28F824CD9836}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5113,20 +5148,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44918</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5138,36 +5173,36 @@
       <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5238,13 +5273,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5256,16 +5291,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5288,7 +5323,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
@@ -5300,16 +5335,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -5333,7 +5368,7 @@
         <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>81</v>
@@ -5356,18 +5391,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="26"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5380,18 +5417,26 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
@@ -5399,10 +5444,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
+      <c r="E13" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -5414,10 +5461,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -5429,10 +5476,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -5586,7 +5633,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5607,7 +5654,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5618,10 +5665,18 @@
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="20">
+        <v>4</v>
+      </c>
+      <c r="C30" s="34">
+        <v>45004</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -5697,7 +5752,7 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E12:H14"/>
+    <mergeCell ref="E13:H15"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
@@ -5716,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6375,20 +6430,20 @@
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44918</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -6400,36 +6455,36 @@
       <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6585,7 +6640,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -6596,7 +6651,9 @@
       <c r="F10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -6610,16 +6667,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -6690,12 +6747,12 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6707,10 +6764,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6722,10 +6779,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -6971,7 +7028,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7629,20 +7686,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44918</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7654,36 +7711,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7789,13 +7846,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>94</v>
@@ -7814,16 +7871,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -7890,12 +7947,12 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="E12" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -7907,10 +7964,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -7922,10 +7979,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -8087,14 +8144,14 @@
       <c r="B28" s="20">
         <v>2</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>191</v>
+      <c r="C28" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -8115,7 +8172,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -8205,13 +8262,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E12:H14"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E12:H14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8225,7 +8282,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8883,20 +8940,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44918</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8908,36 +8965,36 @@
       <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -9014,7 +9071,7 @@
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -9026,7 +9083,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>63</v>
@@ -9103,7 +9160,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -9128,7 +9185,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9173,12 +9230,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="E13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -9190,10 +9247,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -9205,10 +9262,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -10125,22 +10182,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44986</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -10150,38 +10207,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10223,21 +10280,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="3"/>
@@ -10250,13 +10307,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -10268,16 +10325,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="K7" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10291,7 +10348,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -10318,7 +10375,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -10345,7 +10402,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -10364,13 +10421,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -10389,26 +10446,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10416,13 +10473,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
@@ -10441,13 +10498,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
@@ -10467,11 +10524,11 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -10484,9 +10541,9 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -11389,22 +11446,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50">
         <v>44575</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -11414,38 +11471,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11487,19 +11544,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -11512,26 +11569,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11539,19 +11596,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -11560,7 +11617,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11569,12 +11626,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="E9" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>

--- a/documents/note-테이블명세(2022-12-25).xlsx
+++ b/documents/note-테이블명세(2022-12-25).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\Project_Note\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\NoteIT\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCBDD63-4C66-400A-83A4-63F50AA03D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E358F49-9710-447B-AA91-2FA54E83D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2835" windowWidth="27855" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="202">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -446,10 +446,6 @@
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -611,13 +607,6 @@
   </si>
   <si>
     <t>a_subid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(a_attid, a_subid),
-CONSTRAINT fk_subatt
-FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
-ON DELETE CASCADE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -815,10 +804,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_totalscore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>퀴즈일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -848,6 +833,29 @@
   </si>
   <si>
     <t>tbl_scores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 득점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 총점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_totalscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(a_attid),
+CONSTRAINT fk_subatt
+FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
+ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1456,7 +1464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,6 +1665,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AE80-C225-4A09-A24A-B47819C21C0A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2684,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -2757,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -2778,7 +2789,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="30"/>
       <c r="L6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2826,7 +2837,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2838,13 +2849,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>38</v>
@@ -2861,13 +2872,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -2887,13 +2898,13 @@
         <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -2913,7 +2924,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3222,7 +3233,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3903,7 +3914,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -3924,7 +3935,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -3976,13 +3987,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>38</v>
@@ -4005,13 +4016,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -4021,16 +4032,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.15">
@@ -4044,7 +4055,7 @@
         <v>102</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>29</v>
@@ -4065,13 +4076,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>29</v>
@@ -4092,13 +4103,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>29</v>
@@ -4125,7 +4136,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>29</v>
@@ -4135,7 +4146,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>64</v>
@@ -4158,7 +4169,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>29</v>
@@ -4177,13 +4188,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>94</v>
@@ -4201,17 +4212,23 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="C14" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
@@ -4222,10 +4239,12 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4238,12 +4257,12 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="60"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="14"/>
@@ -4254,10 +4273,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -4269,7 +4288,7 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
@@ -4470,13 +4489,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E14:H17"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E15:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5273,13 +5292,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -5291,16 +5310,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5323,7 +5342,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30"/>
@@ -5335,16 +5354,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -5368,7 +5387,7 @@
         <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>81</v>
@@ -5391,13 +5410,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -5418,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
@@ -5445,7 +5464,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="32"/>
       <c r="E13" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -5633,7 +5652,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5654,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5675,7 +5694,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -5771,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6640,7 +6659,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>24</v>
@@ -6667,16 +6686,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>31</v>
@@ -6748,7 +6767,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
@@ -7846,13 +7865,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>94</v>
@@ -7871,16 +7890,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -7948,7 +7967,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
@@ -8145,13 +8164,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -8172,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -8282,7 +8301,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9071,7 +9090,7 @@
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -9079,11 +9098,9 @@
       <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="37" t="s">
-        <v>47</v>
-      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>63</v>
@@ -9160,7 +9177,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -9185,7 +9202,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -9231,7 +9248,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="55" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -10182,7 +10199,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>14</v>
@@ -10207,7 +10224,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -10228,7 +10245,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -10280,19 +10297,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>47</v>
@@ -10307,13 +10324,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>38</v>
@@ -10325,16 +10342,16 @@
         <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10348,7 +10365,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
@@ -10375,7 +10392,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>28</v>
@@ -10402,7 +10419,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -10421,13 +10438,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -10446,26 +10463,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10473,13 +10490,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
@@ -10498,13 +10515,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
@@ -10525,7 +10542,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="57"/>
@@ -11446,7 +11463,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>14</v>
@@ -11471,7 +11488,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -11492,7 +11509,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -11544,19 +11561,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -11569,26 +11586,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11602,13 +11619,13 @@
         <v>77</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>47</v>
@@ -11617,7 +11634,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
       <c r="L8" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11627,7 +11644,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
